--- a/DATABASE/janeiro2019.xlsx
+++ b/DATABASE/janeiro2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="709">
   <si>
     <t>Nº</t>
   </si>
@@ -526,9 +526,6 @@
     <t>SERRA</t>
   </si>
   <si>
-    <t>PARQUE RESIDENCIAL NOVA ALMEIDARUA BAIXO GUANDU</t>
-  </si>
-  <si>
     <t>11/01/2019</t>
   </si>
   <si>
@@ -580,13 +577,1435 @@
     <t>CAVA ROXA</t>
   </si>
   <si>
+    <t>12/01/2019</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>JAGUARE</t>
+  </si>
+  <si>
+    <t>PALMITO</t>
+  </si>
+  <si>
+    <t>RUA NAO CADASTRADA</t>
+  </si>
+  <si>
+    <t>12/01/2019</t>
+  </si>
+  <si>
+    <t>07:16:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ZUMBI DOS PALMARES</t>
+  </si>
+  <si>
+    <t>RUA SILVIO AVIDOS</t>
+  </si>
+  <si>
+    <t>12/01/2019</t>
+  </si>
+  <si>
+    <t>22:07:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>ALZIRA RAMOS</t>
+  </si>
+  <si>
+    <t>RUA DAS VIOLETAS</t>
+  </si>
+  <si>
+    <t>12/01/2019</t>
+  </si>
+  <si>
+    <t>22:04:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>PRIMEIRO DE MAIO</t>
+  </si>
+  <si>
+    <t>RUA SAO JUDAS TADEU</t>
+  </si>
+  <si>
+    <t>13/01/2019</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>SAO BENEDITO</t>
+  </si>
+  <si>
+    <t>VALAO</t>
+  </si>
+  <si>
+    <t>13/01/2019</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>VILA NOVA DE COLARES</t>
+  </si>
+  <si>
+    <t>RUA IGUATEMI</t>
+  </si>
+  <si>
+    <t>13/01/2019</t>
+  </si>
+  <si>
+    <t>13:34:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>LINHARES</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>RUA D PEDRO II</t>
+  </si>
+  <si>
+    <t>13/01/2019</t>
+  </si>
+  <si>
+    <t>15:19:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MARATAIZES</t>
+  </si>
+  <si>
+    <t>IMBURI</t>
+  </si>
+  <si>
+    <t>ESTRADA DE IMBURI</t>
+  </si>
+  <si>
+    <t>13/01/2019</t>
+  </si>
+  <si>
+    <t>18:01:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>RIO MARINHO</t>
+  </si>
+  <si>
+    <t>RUA NOVE</t>
+  </si>
+  <si>
+    <t>13/01/2019</t>
+  </si>
+  <si>
+    <t>20:52:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>SAO MARCOS I</t>
+  </si>
+  <si>
+    <t>RUA VISTA ALTA</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>19:20:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>RODOVIA AFONSO SCHWAB</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>20:16:00</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>DO MOSCOSO</t>
+  </si>
+  <si>
+    <t>POEIRAO</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>DO MOSCOSO</t>
+  </si>
+  <si>
+    <t>POEIRAO</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>POEIRAO</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>22:45:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>JAGUARE</t>
+  </si>
+  <si>
+    <t>BOA VISTA I</t>
+  </si>
+  <si>
+    <t>RUA DANIEL BASTOS</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SOORETAMA</t>
+  </si>
+  <si>
+    <t>BARRA DO CHUMBADO</t>
+  </si>
+  <si>
+    <t>RUA PRINCIPAL</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>22:32:00</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SAO MATEUS</t>
+  </si>
+  <si>
+    <t>BOM SUCESSO</t>
+  </si>
+  <si>
+    <t>AV  FERNANDO JOGAIDER</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>JARDIM LIMOEIRO</t>
+  </si>
+  <si>
+    <t>AV LOURIVAL NUNES</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>08:22:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ITAPEMIRIM</t>
+  </si>
+  <si>
+    <t>BOM SERA</t>
+  </si>
+  <si>
+    <t>LOCALIDADE DE LIMÃO</t>
+  </si>
+  <si>
+    <t>17/01/2019</t>
+  </si>
+  <si>
+    <t>22:18:00</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>PEDRO CANARIO</t>
+  </si>
+  <si>
+    <t>CAMATA</t>
+  </si>
+  <si>
+    <t>RUA PORTO AZUL</t>
+  </si>
+  <si>
+    <t>18/01/2019</t>
+  </si>
+  <si>
+    <t>07:08:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MONTANHA</t>
+  </si>
+  <si>
+    <t>ANGELA DEPOLLO</t>
+  </si>
+  <si>
+    <t>RUA PROF EUCLIDES DANTAS</t>
+  </si>
+  <si>
+    <t>18/01/2019</t>
+  </si>
+  <si>
+    <t>22:50:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>JAGUARE</t>
+  </si>
+  <si>
+    <t>NOVO TEMPO</t>
+  </si>
+  <si>
+    <t>RUA EUGENIO SALVADOR</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SAO MATEUS</t>
+  </si>
+  <si>
+    <t>MORADA DO LAGO</t>
+  </si>
+  <si>
+    <t>RUA BOM PASTOR</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>02:57:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>FORTE SAO JOAO</t>
+  </si>
+  <si>
+    <t>RUA RODRIGUES ARZAO</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>04:57:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>BONFIM</t>
+  </si>
+  <si>
+    <t>RUA  DIOSCRONO CARNEIRO FILHO</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>09:01:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>FAZENDA CASCATA</t>
+  </si>
+  <si>
+    <t>NAO CADASTRADA</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>22:32:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>RUA IBITINGA</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>08:14:00</t>
+  </si>
+  <si>
+    <t>LATROCÍNIO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>20/01/2019</t>
+  </si>
+  <si>
+    <t>00:12:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CASTELO</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>LOCALIDADE ALTO CÓRREGO DA AREIA</t>
+  </si>
+  <si>
+    <t>20/01/2019</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ARACRUZ</t>
+  </si>
+  <si>
+    <t>RIBEIRAO DO MEIO</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>20/01/2019</t>
+  </si>
+  <si>
+    <t>19:15:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>IBES</t>
+  </si>
+  <si>
+    <t>RUA CRUZEIRO DO SUL</t>
+  </si>
+  <si>
+    <t>20/01/2019</t>
+  </si>
+  <si>
+    <t>20:51:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL JABAETE</t>
+  </si>
+  <si>
+    <t>20/01/2019</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CÓRREGO SANTA ANGELICA</t>
+  </si>
+  <si>
+    <t>20/01/2019</t>
+  </si>
+  <si>
+    <t>22:45:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>RUA PROJETADA</t>
+  </si>
+  <si>
+    <t>21/01/2019</t>
+  </si>
+  <si>
+    <t>13:58:00</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>BARRO BRANCO</t>
+  </si>
+  <si>
+    <t>21/01/2019</t>
+  </si>
+  <si>
+    <t>17:10:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SOORETAMA</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>AV VISTA ALEGRE</t>
+  </si>
+  <si>
+    <t>21/01/2019</t>
+  </si>
+  <si>
+    <t>22:28:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>LINHARES</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>RUA MONTE BELO</t>
+  </si>
+  <si>
+    <t>22/01/2019</t>
+  </si>
+  <si>
+    <t>15:06:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VIANA</t>
+  </si>
+  <si>
+    <t>MARCILIO DE NORONHA</t>
+  </si>
+  <si>
+    <t>AV PIRACICABA</t>
+  </si>
+  <si>
+    <t>22/01/2019</t>
+  </si>
+  <si>
+    <t>23:37:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>SANTANA</t>
+  </si>
+  <si>
+    <t>RUA ELIEZER GONCALVES DE JESUS</t>
+  </si>
+  <si>
+    <t>22/01/2019</t>
+  </si>
+  <si>
+    <t>18:07:00</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>DOM BOSCO</t>
+  </si>
+  <si>
     <t>RUA NAO INFORMADA</t>
   </si>
   <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>06:03:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>GLORIA</t>
+  </si>
+  <si>
+    <t>PEDRA DAGUA</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>07:22:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>DOMINGOS MARTINS</t>
+  </si>
+  <si>
+    <t>NOSSA SENHORA DO CARMO</t>
+  </si>
+  <si>
+    <t>COMUNIDADE NOSSA SENHORA DO CARMO</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>21:01:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>LINHARES</t>
+  </si>
+  <si>
+    <t>PLANALTO</t>
+  </si>
+  <si>
+    <t>RUA VALDEMIRO PEDROTI</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>23:42:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>CENTRO DA SERRA</t>
+  </si>
+  <si>
+    <t>NAO CADASTRADO</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>00:13:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>SAO GERALDO</t>
+  </si>
+  <si>
+    <t>AV PRESIDENTE GETULIO VARGAS</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>01:48:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>ILHA DO PRINCIPE</t>
+  </si>
+  <si>
+    <t>RUA NAO INFORMADA</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>10:33:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>CIVIT I</t>
+  </si>
+  <si>
+    <t>NAO INFORMADO</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>15:56:00</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>GUACUI</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>RUA NORTE</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>21:31:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ITAPEMIRIM</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>05:44:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>VALE ENCANTADO</t>
+  </si>
+  <si>
+    <t>RODOVIA ROBERT KENEDY</t>
+  </si>
+  <si>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>13:59:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>ARIBIRI</t>
+  </si>
+  <si>
+    <t>RUA MANOEL VEREZA</t>
+  </si>
+  <si>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>20:05:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VIANA</t>
+  </si>
+  <si>
+    <t>MORADA DE VILA BETHANIA</t>
+  </si>
+  <si>
+    <t>RUA RONDON PACHECO</t>
+  </si>
+  <si>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>20:24:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>FUNDAO</t>
+  </si>
+  <si>
+    <t>PRAIA GRANDE</t>
+  </si>
+  <si>
+    <t>AV SAO PAULO</t>
+  </si>
+  <si>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>23:53:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>PRAIA DE ITAPARICA</t>
+  </si>
+  <si>
+    <t>AV SANTA LEOPOLDINA</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NOVA VENECIA</t>
+  </si>
+  <si>
+    <t>ALTOE</t>
+  </si>
+  <si>
+    <t>RUA LIRIO GADIOLI</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>GUARAPARI</t>
+  </si>
+  <si>
+    <t>PONTAL DE SANTA MONICA</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>GUARAPARI</t>
+  </si>
+  <si>
+    <t>PONTAL DE SANTA MONICA</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>ITARARE</t>
+  </si>
+  <si>
+    <t>RUA MARINS DE ALVARINO</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>06:26:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>PRIMEIRO DE MAIO</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>06:26:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>PRIMEIRO DE MAIO</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>05:38:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>CARAPINA</t>
+  </si>
+  <si>
+    <t>RUA NAO INFORMADA</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ECOPORANGA</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>CÓRREGO OSVALDO CRUZ</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>09:07:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>DOM JOAO BATISTA</t>
+  </si>
+  <si>
+    <t>RUA BEIRA MAR</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>GLORIA</t>
+  </si>
+  <si>
+    <t>RUA MOURISCO</t>
+  </si>
+  <si>
+    <t>29/01/2019</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>JABURUNA</t>
+  </si>
+  <si>
+    <t>29/01/2019</t>
+  </si>
+  <si>
+    <t>03:03:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>SAO TORQUATO</t>
+  </si>
+  <si>
+    <t>AV ANESIO JOSE SIMOES</t>
+  </si>
+  <si>
+    <t>29/01/2019</t>
+  </si>
+  <si>
+    <t>06:45:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VELHA</t>
+  </si>
+  <si>
+    <t>COBI DE BAIXO</t>
+  </si>
+  <si>
+    <t>AV CARLOS LINDENBERG</t>
+  </si>
+  <si>
+    <t>29/01/2019</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VILA VALERIO</t>
+  </si>
+  <si>
+    <t>TESOURO</t>
+  </si>
+  <si>
+    <t>CORREGO TESOURO</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>08:10:00</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>ALZIRA RAMOS</t>
+  </si>
+  <si>
+    <t>RUA DO TANQUE</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>18:46:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CARIACICA</t>
+  </si>
+  <si>
+    <t>PADRE GABRIEL</t>
+  </si>
+  <si>
+    <t>RUA QUILOMBO DOS PALMARES</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>21:26:00</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VIANA</t>
+  </si>
+  <si>
+    <t>JUCU</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>21:26:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VIANA</t>
+  </si>
+  <si>
+    <t>JUCU</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>21:26:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VIANA</t>
+  </si>
+  <si>
+    <t>JUCU</t>
+  </si>
+  <si>
+    <t>RODOVIA FEDERAL BR 101, KM 308,2</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>00:24:00</t>
   </si>
   <si>
     <t>HOMICÍDIO DOLOSO</t>
@@ -598,55 +2017,55 @@
     <t>JAGUARE</t>
   </si>
   <si>
-    <t>PALMITO</t>
-  </si>
-  <si>
-    <t>RUA NAO CADASTRADA</t>
-  </si>
-  <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
-    <t>07:16:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ZUMBI DOS PALMARES</t>
-  </si>
-  <si>
-    <t>RUA SILVIO AVIDOS</t>
-  </si>
-  <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
-    <t>22:07:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>ALZIRA RAMOS</t>
-  </si>
-  <si>
-    <t>RUA DAS VIOLETAS</t>
-  </si>
-  <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
-    <t>22:04:00</t>
+    <t>BARRA SECA</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>NOVA VENECIA</t>
+  </si>
+  <si>
+    <t>ZONA RURAL</t>
+  </si>
+  <si>
+    <t>FAZENDA VELOSO - CORREGO DO PENEIRA</t>
+  </si>
+  <si>
+    <t>31/01/2019</t>
+  </si>
+  <si>
+    <t>17:56:00</t>
+  </si>
+  <si>
+    <t>HOMICÍDIO DOLOSO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>DOMINGOS MARTINS</t>
+  </si>
+  <si>
+    <t>PEDRA AZUL</t>
+  </si>
+  <si>
+    <t>BR 262 , KM 74 CANARINHO</t>
+  </si>
+  <si>
+    <t>31/01/2019</t>
   </si>
   <si>
     <t>HOMICÍDIO DOLOSO</t>
@@ -658,37 +2077,13 @@
     <t>VILA VELHA</t>
   </si>
   <si>
-    <t>PRIMEIRO DE MAIO</t>
-  </si>
-  <si>
-    <t>RUA SAO JUDAS TADEU</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>SAO BENEDITO</t>
-  </si>
-  <si>
-    <t>VALAO</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>00:30:00</t>
+    <t>RESIDENCIAL JABAETE</t>
+  </si>
+  <si>
+    <t>31/01/2019</t>
+  </si>
+  <si>
+    <t>22:34:00</t>
   </si>
   <si>
     <t>HOMICÍDIO DOLOSO</t>
@@ -700,1425 +2095,6 @@
     <t>SERRA</t>
   </si>
   <si>
-    <t>VILA NOVA DE COLARES</t>
-  </si>
-  <si>
-    <t>RUA IGUATEMI</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>13:34:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>LINHARES</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>RUA D PEDRO II</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>15:19:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>MARATAIZES</t>
-  </si>
-  <si>
-    <t>IMBURI</t>
-  </si>
-  <si>
-    <t>ESTRADA DE IMBURI</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>18:01:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>RIO MARINHO</t>
-  </si>
-  <si>
-    <t>RUA NOVE</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>20:52:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>SAO MARCOS I</t>
-  </si>
-  <si>
-    <t>RUA VISTA ALTA</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>19:20:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>RODOVIA AFONSO SCHWAB</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>20:16:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>DO MOSCOSO</t>
-  </si>
-  <si>
-    <t>POEIRAO</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>20:16:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>DO MOSCOSO</t>
-  </si>
-  <si>
-    <t>POEIRAO</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>20:16:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>POEIRAO</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>22:45:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>JAGUARE</t>
-  </si>
-  <si>
-    <t>BOA VISTA I</t>
-  </si>
-  <si>
-    <t>RUA DANIEL BASTOS</t>
-  </si>
-  <si>
-    <t>15/01/2019</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SOORETAMA</t>
-  </si>
-  <si>
-    <t>BARRA DO CHUMBADO</t>
-  </si>
-  <si>
-    <t>RUA PRINCIPAL</t>
-  </si>
-  <si>
-    <t>15/01/2019</t>
-  </si>
-  <si>
-    <t>22:32:00</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SAO MATEUS</t>
-  </si>
-  <si>
-    <t>BOM SUCESSO</t>
-  </si>
-  <si>
-    <t>AV  FERNANDO JOGAIDER</t>
-  </si>
-  <si>
-    <t>16/01/2019</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>JARDIM LIMOEIRO</t>
-  </si>
-  <si>
-    <t>AV LOURIVAL NUNES</t>
-  </si>
-  <si>
-    <t>16/01/2019</t>
-  </si>
-  <si>
-    <t>08:22:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ITAPEMIRIM</t>
-  </si>
-  <si>
-    <t>BOM SERA</t>
-  </si>
-  <si>
-    <t>LOCALIDADE DE LIMÃO</t>
-  </si>
-  <si>
-    <t>17/01/2019</t>
-  </si>
-  <si>
-    <t>22:18:00</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>PEDRO CANARIO</t>
-  </si>
-  <si>
-    <t>CAMATA</t>
-  </si>
-  <si>
-    <t>RUA PORTO AZUL</t>
-  </si>
-  <si>
-    <t>18/01/2019</t>
-  </si>
-  <si>
-    <t>07:08:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>MONTANHA</t>
-  </si>
-  <si>
-    <t>ANGELA DEPOLLO</t>
-  </si>
-  <si>
-    <t>RUA PROF EUCLIDES DANTAS</t>
-  </si>
-  <si>
-    <t>18/01/2019</t>
-  </si>
-  <si>
-    <t>22:50:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>JAGUARE</t>
-  </si>
-  <si>
-    <t>NOVO TEMPO</t>
-  </si>
-  <si>
-    <t>RUA EUGENIO SALVADOR</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SAO MATEUS</t>
-  </si>
-  <si>
-    <t>MORADA DO LAGO</t>
-  </si>
-  <si>
-    <t>RUA BOM PASTOR</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>02:57:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>FORTE SAO JOAO</t>
-  </si>
-  <si>
-    <t>RUA RODRIGUES ARZAO</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>04:57:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>BONFIM</t>
-  </si>
-  <si>
-    <t>RUA  DIOSCRONO CARNEIRO FILHO</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>09:01:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>FAZENDA CASCATA</t>
-  </si>
-  <si>
-    <t>NAO CADASTRADA</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>22:32:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>RUA IBITINGA</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>08:14:00</t>
-  </si>
-  <si>
-    <t>LATROCÍNIO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>00:12:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CASTELO</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>LOCALIDADE ALTO CÓRREGO DA AREIA</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>09:20:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ARACRUZ</t>
-  </si>
-  <si>
-    <t>RIBEIRAO DO MEIO</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>19:15:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>IBES</t>
-  </si>
-  <si>
-    <t>RUA CRUZEIRO DO SUL</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>20:51:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>RESIDENCIAL JABAETE</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>21:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CÓRREGO SANTA ANGELICA</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>22:45:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>RUA PROJETADA</t>
-  </si>
-  <si>
-    <t>21/01/2019</t>
-  </si>
-  <si>
-    <t>13:58:00</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>BARRO BRANCO</t>
-  </si>
-  <si>
-    <t>RUA NAO CADASTRADA</t>
-  </si>
-  <si>
-    <t>21/01/2019</t>
-  </si>
-  <si>
-    <t>17:10:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SOORETAMA</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>AV VISTA ALEGRE</t>
-  </si>
-  <si>
-    <t>21/01/2019</t>
-  </si>
-  <si>
-    <t>22:28:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>LINHARES</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>RUA MONTE BELO</t>
-  </si>
-  <si>
-    <t>22/01/2019</t>
-  </si>
-  <si>
-    <t>15:06:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VIANA</t>
-  </si>
-  <si>
-    <t>MARCILIO DE NORONHA</t>
-  </si>
-  <si>
-    <t>AV PIRACICABA</t>
-  </si>
-  <si>
-    <t>22/01/2019</t>
-  </si>
-  <si>
-    <t>23:37:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>SANTANA</t>
-  </si>
-  <si>
-    <t>RUA ELIEZER GONCALVES DE JESUS</t>
-  </si>
-  <si>
-    <t>22/01/2019</t>
-  </si>
-  <si>
-    <t>18:07:00</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>DOM BOSCO</t>
-  </si>
-  <si>
-    <t>RUA NAO INFORMADA</t>
-  </si>
-  <si>
-    <t>23/01/2019</t>
-  </si>
-  <si>
-    <t>06:03:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>GLORIA</t>
-  </si>
-  <si>
-    <t>PEDRA DAGUA</t>
-  </si>
-  <si>
-    <t>23/01/2019</t>
-  </si>
-  <si>
-    <t>07:22:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>DOMINGOS MARTINS</t>
-  </si>
-  <si>
-    <t>NOSSA SENHORA DO CARMO</t>
-  </si>
-  <si>
-    <t>COMUNIDADE NOSSA SENHORA DO CARMO</t>
-  </si>
-  <si>
-    <t>23/01/2019</t>
-  </si>
-  <si>
-    <t>21:01:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>LINHARES</t>
-  </si>
-  <si>
-    <t>PLANALTO</t>
-  </si>
-  <si>
-    <t>RUA VALDEMIRO PEDROTI</t>
-  </si>
-  <si>
-    <t>23/01/2019</t>
-  </si>
-  <si>
-    <t>23:42:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>CENTRO DA SERRA</t>
-  </si>
-  <si>
-    <t>NAO CADASTRADO</t>
-  </si>
-  <si>
-    <t>24/01/2019</t>
-  </si>
-  <si>
-    <t>00:13:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>SAO GERALDO</t>
-  </si>
-  <si>
-    <t>AV PRESIDENTE GETULIO VARGAS</t>
-  </si>
-  <si>
-    <t>24/01/2019</t>
-  </si>
-  <si>
-    <t>01:48:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>ILHA DO PRINCIPE</t>
-  </si>
-  <si>
-    <t>RUA NAO INFORMADA</t>
-  </si>
-  <si>
-    <t>24/01/2019</t>
-  </si>
-  <si>
-    <t>10:33:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>CIVIT I</t>
-  </si>
-  <si>
-    <t>NAO INFORMADO</t>
-  </si>
-  <si>
-    <t>24/01/2019</t>
-  </si>
-  <si>
-    <t>15:56:00</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>GUACUI</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>RUA NORTE</t>
-  </si>
-  <si>
-    <t>24/01/2019</t>
-  </si>
-  <si>
-    <t>21:31:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ITAPEMIRIM</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>26/01/2019</t>
-  </si>
-  <si>
-    <t>05:44:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>VALE ENCANTADO</t>
-  </si>
-  <si>
-    <t>RODOVIA ROBERT KENEDY</t>
-  </si>
-  <si>
-    <t>26/01/2019</t>
-  </si>
-  <si>
-    <t>13:59:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>ARIBIRI</t>
-  </si>
-  <si>
-    <t>RUA MANOEL VEREZA</t>
-  </si>
-  <si>
-    <t>26/01/2019</t>
-  </si>
-  <si>
-    <t>20:05:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VIANA</t>
-  </si>
-  <si>
-    <t>MORADA DE VILA BETHANIA</t>
-  </si>
-  <si>
-    <t>RUA RONDON PACHECO</t>
-  </si>
-  <si>
-    <t>26/01/2019</t>
-  </si>
-  <si>
-    <t>20:24:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>FUNDAO</t>
-  </si>
-  <si>
-    <t>PRAIA GRANDE</t>
-  </si>
-  <si>
-    <t>AV SAO PAULO</t>
-  </si>
-  <si>
-    <t>26/01/2019</t>
-  </si>
-  <si>
-    <t>23:53:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>PRAIA DE ITAPARICA</t>
-  </si>
-  <si>
-    <t>AV SANTA LEOPOLDINA</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NOVA VENECIA</t>
-  </si>
-  <si>
-    <t>ALTOE</t>
-  </si>
-  <si>
-    <t>RUA LIRIO GADIOLI</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>06:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>GUARAPARI</t>
-  </si>
-  <si>
-    <t>PONTAL DE SANTA MONICA</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>06:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>GUARAPARI</t>
-  </si>
-  <si>
-    <t>PONTAL DE SANTA MONICA</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VITORIA</t>
-  </si>
-  <si>
-    <t>ITARARE</t>
-  </si>
-  <si>
-    <t>RUA MARINS DE ALVARINO</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>06:26:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>PRIMEIRO DE MAIO</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>06:26:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>PRIMEIRO DE MAIO</t>
-  </si>
-  <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>05:38:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
-    <t>CARAPINA</t>
-  </si>
-  <si>
-    <t>RUA NAO INFORMADA</t>
-  </si>
-  <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ECOPORANGA</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>CÓRREGO OSVALDO CRUZ</t>
-  </si>
-  <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>09:07:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>DOM JOAO BATISTA</t>
-  </si>
-  <si>
-    <t>RUA BEIRA MAR</t>
-  </si>
-  <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>GLORIA</t>
-  </si>
-  <si>
-    <t>RUA MOURISCO</t>
-  </si>
-  <si>
-    <t>29/01/2019</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>JABURUNA</t>
-  </si>
-  <si>
-    <t>RUA NAO INFORMADA</t>
-  </si>
-  <si>
-    <t>29/01/2019</t>
-  </si>
-  <si>
-    <t>03:03:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>SAO TORQUATO</t>
-  </si>
-  <si>
-    <t>AV ANESIO JOSE SIMOES</t>
-  </si>
-  <si>
-    <t>29/01/2019</t>
-  </si>
-  <si>
-    <t>06:45:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>COBI DE BAIXO</t>
-  </si>
-  <si>
-    <t>AV CARLOS LINDENBERG</t>
-  </si>
-  <si>
-    <t>29/01/2019</t>
-  </si>
-  <si>
-    <t>22:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VALERIO</t>
-  </si>
-  <si>
-    <t>TESOURO</t>
-  </si>
-  <si>
-    <t>CORREGO TESOURO</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>08:10:00</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>ALZIRA RAMOS</t>
-  </si>
-  <si>
-    <t>RUA DO TANQUE</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>18:46:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CARIACICA</t>
-  </si>
-  <si>
-    <t>PADRE GABRIEL</t>
-  </si>
-  <si>
-    <t>RUA QUILOMBO DOS PALMARES</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>21:26:00</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VIANA</t>
-  </si>
-  <si>
-    <t>JUCU</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>21:26:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VIANA</t>
-  </si>
-  <si>
-    <t>JUCU</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>21:26:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VIANA</t>
-  </si>
-  <si>
-    <t>JUCU</t>
-  </si>
-  <si>
-    <t>RODOVIA FEDERAL BR 101, KM 308,2</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>00:24:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>JAGUARE</t>
-  </si>
-  <si>
-    <t>BARRA SECA</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>30/01/2019</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>NOVA VENECIA</t>
-  </si>
-  <si>
-    <t>ZONA RURAL</t>
-  </si>
-  <si>
-    <t>FAZENDA VELOSO - CORREGO DO PENEIRA</t>
-  </si>
-  <si>
-    <t>31/01/2019</t>
-  </si>
-  <si>
-    <t>17:56:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>DOMINGOS MARTINS</t>
-  </si>
-  <si>
-    <t>PEDRA AZUL</t>
-  </si>
-  <si>
-    <t>BR 262 , KM 74 CANARINHO</t>
-  </si>
-  <si>
-    <t>31/01/2019</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VILA VELHA</t>
-  </si>
-  <si>
-    <t>RESIDENCIAL JABAETE</t>
-  </si>
-  <si>
-    <t>31/01/2019</t>
-  </si>
-  <si>
-    <t>22:34:00</t>
-  </si>
-  <si>
-    <t>HOMICÍDIO DOLOSO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SERRA</t>
-  </si>
-  <si>
     <t>SAO MARCOS II</t>
   </si>
   <si>
@@ -2150,6 +2126,21 @@
   </si>
   <si>
     <t>LESÃO CORPORAL SEGUIDO DE MORTE</t>
+  </si>
+  <si>
+    <t>RUA JULIO POMPEU</t>
+  </si>
+  <si>
+    <t>RUA JERONIMO MONTEIRO</t>
+  </si>
+  <si>
+    <t>NOVA ALMEIDA</t>
+  </si>
+  <si>
+    <t>RUA BAIXO GUANDU</t>
+  </si>
+  <si>
+    <t>RUA FEIRA DE SANTANA</t>
   </si>
 </sst>
 </file>
@@ -2512,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3187,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>131</v>
@@ -3277,7 +3268,10 @@
         <v>169</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>170</v>
+        <v>706</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5">
@@ -3285,28 +3279,28 @@
         <v>38295295</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="2">
         <v>18</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5">
@@ -3314,16 +3308,16 @@
         <v>38295169</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F28" s="2">
         <v>18</v>
@@ -3332,10 +3326,10 @@
         <v>33</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5">
@@ -3343,7 +3337,7 @@
         <v>38293563</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>76</v>
@@ -3361,10 +3355,10 @@
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.5">
@@ -3372,28 +3366,28 @@
         <v>38293564</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F30" s="2">
         <v>53</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>188</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.5">
@@ -3401,28 +3395,28 @@
         <v>38301979</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F31" s="2">
         <v>35</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.5">
@@ -3430,16 +3424,16 @@
         <v>38299189</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="F32" s="2">
         <v>35</v>
@@ -3448,10 +3442,10 @@
         <v>20</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.5">
@@ -3459,28 +3453,28 @@
         <v>38305712</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="F33" s="3">
         <v>27</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.5">
@@ -3488,28 +3482,28 @@
         <v>38305695</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F34" s="2">
         <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.5">
@@ -3517,28 +3511,28 @@
         <v>38312935</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="F35" s="2">
         <v>26</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5">
@@ -3546,28 +3540,28 @@
         <v>38306688</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="F36" s="2">
         <v>21</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.5">
@@ -3575,28 +3569,28 @@
         <v>38310427</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F37" s="2">
         <v>14</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.5">
@@ -3604,28 +3598,28 @@
         <v>38311133</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F38" s="2">
         <v>31</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5">
@@ -3633,28 +3627,28 @@
         <v>38312520</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F39" s="2">
         <v>19</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.5">
@@ -3662,28 +3656,28 @@
         <v>38313962</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="F40" s="2">
         <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.5">
@@ -3691,28 +3685,28 @@
         <v>38324110</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="F41" s="2">
         <v>35</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.5">
@@ -3720,28 +3714,28 @@
         <v>38323521</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="F42" s="2">
         <v>18</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.5">
@@ -3749,28 +3743,28 @@
         <v>38323521</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>271</v>
+        <v>544</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F43" s="2">
         <v>23</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.5">
@@ -3778,7 +3772,7 @@
         <v>38477597</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>89</v>
@@ -3793,13 +3787,13 @@
         <v>48</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.5">
@@ -3807,28 +3801,28 @@
         <v>38323521</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F45" s="2">
         <v>22</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.5">
@@ -3836,28 +3830,28 @@
         <v>38325036</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F46" s="2">
         <v>29</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.5">
@@ -3865,28 +3859,28 @@
         <v>38335946</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F47" s="2">
         <v>35</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5">
@@ -3894,28 +3888,28 @@
         <v>38324636</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F48" s="2">
         <v>36</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.5">
@@ -3923,28 +3917,28 @@
         <v>38334917</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F49" s="2">
         <v>34</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5">
@@ -3952,28 +3946,28 @@
         <v>38335859</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F50" s="3">
         <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.5">
@@ -3981,28 +3975,28 @@
         <v>38353376</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F51" s="3">
         <v>62</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5">
@@ -4010,28 +4004,28 @@
         <v>38355035</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F52" s="2">
         <v>34</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5">
@@ -4039,28 +4033,28 @@
         <v>38344027</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F53" s="2">
         <v>18</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5">
@@ -4068,28 +4062,28 @@
         <v>38370345</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F54" s="2">
         <v>33</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5">
@@ -4097,28 +4091,28 @@
         <v>38364669</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F55" s="2">
         <v>28</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.5">
@@ -4126,28 +4120,28 @@
         <v>38364993</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F56" s="3">
         <v>18</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.5">
@@ -4155,28 +4149,28 @@
         <v>38365805</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F57" s="2">
         <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.5">
@@ -4184,28 +4178,28 @@
         <v>38372890</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F58" s="2">
         <v>30</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.5">
@@ -4213,28 +4207,28 @@
         <v>38365564</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F59" s="2">
         <v>65</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.5">
@@ -4242,28 +4236,28 @@
         <v>38373493</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F60" s="2">
         <v>25</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5">
@@ -4271,28 +4265,28 @@
         <v>38375603</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F61" s="2">
         <v>31</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.5">
@@ -4300,28 +4294,28 @@
         <v>38380151</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F62" s="2">
         <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.5">
@@ -4329,28 +4323,28 @@
         <v>38380978</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F63" s="2">
         <v>40</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5">
@@ -4358,28 +4352,28 @@
         <v>38382157</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F64" s="2">
         <v>42</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5">
@@ -4387,28 +4381,28 @@
         <v>38382334</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F65" s="2">
         <v>28</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.5">
@@ -4416,28 +4410,28 @@
         <v>38387404</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F66" s="2">
         <v>18</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5">
@@ -4445,28 +4439,28 @@
         <v>38389563</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F67" s="2">
         <v>16</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.5">
@@ -4474,28 +4468,28 @@
         <v>38392413</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F68" s="2">
         <v>64</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="13.5">
@@ -4503,28 +4497,28 @@
         <v>38398305</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F69" s="2">
         <v>20</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.5">
@@ -4532,28 +4526,28 @@
         <v>38402646</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F70" s="2">
         <v>19</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.5">
@@ -4561,28 +4555,28 @@
         <v>38400192</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F71" s="2">
         <v>36</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.5">
@@ -4590,28 +4584,28 @@
         <v>38403293</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F72" s="2">
         <v>21</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.5">
@@ -4619,28 +4613,28 @@
         <v>38403503</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F73" s="2">
         <v>47</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.5">
@@ -4648,28 +4642,28 @@
         <v>38411117</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F74" s="2">
         <v>17</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.5">
@@ -4677,28 +4671,28 @@
         <v>38412168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F75" s="2">
         <v>33</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5">
@@ -4706,28 +4700,28 @@
         <v>38412312</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F76" s="2">
         <v>36</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.5">
@@ -4735,28 +4729,28 @@
         <v>38412611</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F77" s="2">
         <v>22</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5">
@@ -4764,28 +4758,28 @@
         <v>38414737</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F78" s="2">
         <v>57</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.5">
@@ -4793,28 +4787,28 @@
         <v>38418178</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F79" s="2">
         <v>20</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5">
@@ -4822,28 +4816,28 @@
         <v>38117669</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F80" s="2">
         <v>19</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5">
@@ -4851,28 +4845,28 @@
         <v>38433336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F81" s="2">
         <v>16</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5">
@@ -4880,28 +4874,28 @@
         <v>38436416</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F82" s="2">
         <v>20</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.5">
@@ -4909,28 +4903,28 @@
         <v>38439958</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F83" s="2">
         <v>44</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5">
@@ -4938,28 +4932,28 @@
         <v>38440103</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F84" s="2">
         <v>18</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="13.5">
@@ -4967,28 +4961,28 @@
         <v>38441618</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F85" s="2">
         <v>23</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5">
@@ -4996,28 +4990,28 @@
         <v>38442493</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F86" s="2">
         <v>41</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.5">
@@ -5025,28 +5019,28 @@
         <v>38442758</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>557</v>
+        <v>279</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F87" s="2">
         <v>35</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5">
@@ -5054,28 +5048,28 @@
         <v>38442758</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F88" s="2">
         <v>35</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.5">
@@ -5083,28 +5077,28 @@
         <v>38442923</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F89" s="2">
         <v>22</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="13.5">
@@ -5112,28 +5106,28 @@
         <v>38442801</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F90" s="2">
         <v>24</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.5">
@@ -5141,28 +5135,28 @@
         <v>38442801</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F91" s="2">
         <v>27</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.5">
@@ -5170,28 +5164,28 @@
         <v>38450500</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F92" s="2">
         <v>60</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="13.5">
@@ -5199,28 +5193,28 @@
         <v>38455905</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F93" s="2">
         <v>54</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="13.5">
@@ -5228,28 +5222,28 @@
         <v>38451424</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F94" s="2">
         <v>34</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="13.5">
@@ -5257,10 +5251,10 @@
         <v>38323521</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>11</v>
@@ -5275,10 +5269,10 @@
         <v>40</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="13.5">
@@ -5286,28 +5280,28 @@
         <v>38452977</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F96" s="2">
         <v>17</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="13.5">
@@ -5315,28 +5309,28 @@
         <v>38460236</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F97" s="2">
         <v>40</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="13.5">
@@ -5344,28 +5338,28 @@
         <v>38460239</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F98" s="2">
         <v>39</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="13.5">
@@ -5373,28 +5367,28 @@
         <v>38460552</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F99" s="2">
         <v>26</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="13.5">
@@ -5402,28 +5396,28 @@
         <v>38469130</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F100" s="2">
         <v>22</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13.5">
@@ -5431,28 +5425,28 @@
         <v>38470240</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F101" s="2">
         <v>19</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13.5">
@@ -5460,28 +5454,28 @@
         <v>38476373</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="F102" s="2">
         <v>17</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13.5">
@@ -5489,28 +5483,28 @@
         <v>38477597</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="F103" s="2">
         <v>35</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13.5">
@@ -5518,28 +5512,28 @@
         <v>38477597</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F104" s="2">
         <v>22</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="13.5">
@@ -5547,28 +5541,28 @@
         <v>38477597</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F105" s="2">
         <v>54</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13.5">
@@ -5576,28 +5570,28 @@
         <v>38382486</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F106" s="3">
         <v>31</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="13.5">
@@ -5605,28 +5599,28 @@
         <v>38318756</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F107" s="2">
         <v>59</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="13.5">
@@ -5634,28 +5628,28 @@
         <v>38483226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F108" s="2">
         <v>73</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="13.5">
@@ -5663,28 +5657,28 @@
         <v>38486282</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F109" s="2">
         <v>40</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="13.5">
@@ -5692,28 +5686,28 @@
         <v>38487225</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F110" s="2">
         <v>22</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="5" customFormat="1" ht="13.5">
@@ -5721,10 +5715,10 @@
         <v>38477597</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>11</v>
@@ -5736,13 +5730,13 @@
         <v>34</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="13.5">
